--- a/Application Testdata/test_data.xlsx
+++ b/Application Testdata/test_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">sa.johngrey@gmail.com</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t xml:space="preserve">whiteroy.sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johnhenry.sa62@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5051Ftest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5051Gtest</t>
   </si>
 </sst>
 </file>
@@ -60,6 +69,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -81,6 +91,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,18 +162,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="25.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,6 +209,17 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -210,6 +231,7 @@
     <hyperlink ref="E1" r:id="rId5" display="Test@123"/>
     <hyperlink ref="C2" r:id="rId6" display="Test@1234"/>
     <hyperlink ref="B3" r:id="rId7" display="Test@123"/>
+    <hyperlink ref="A4" r:id="rId8" display="johnhenry.sa62@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -228,21 +250,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -257,21 +275,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Application Testdata/test_data.xlsx
+++ b/Application Testdata/test_data.xlsx
@@ -165,14 +165,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,6 +256,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -280,6 +284,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
